--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H2">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N2">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O2">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P2">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q2">
-        <v>165.2666482068043</v>
+        <v>458.1377559243521</v>
       </c>
       <c r="R2">
-        <v>1487.399833861239</v>
+        <v>4123.239803319168</v>
       </c>
       <c r="S2">
-        <v>0.314282080081872</v>
+        <v>0.4465933562808823</v>
       </c>
       <c r="T2">
-        <v>0.314282080081872</v>
+        <v>0.4465933562808823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H3">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>24.944012</v>
       </c>
       <c r="O3">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P3">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q3">
-        <v>58.86528245742266</v>
+        <v>79.37301300945022</v>
       </c>
       <c r="R3">
-        <v>529.7875421168039</v>
+        <v>714.3571170850521</v>
       </c>
       <c r="S3">
-        <v>0.1119421469247419</v>
+        <v>0.07737292947291953</v>
       </c>
       <c r="T3">
-        <v>0.1119421469247419</v>
+        <v>0.07737292947291953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H4">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N4">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O4">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P4">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q4">
-        <v>40.35806921123066</v>
+        <v>64.38020457320279</v>
       </c>
       <c r="R4">
-        <v>363.2226229010759</v>
+        <v>579.4218411588251</v>
       </c>
       <c r="S4">
-        <v>0.0767475959452024</v>
+        <v>0.06275791782405279</v>
       </c>
       <c r="T4">
-        <v>0.07674759594520239</v>
+        <v>0.06275791782405279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H5">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I5">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J5">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N5">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O5">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P5">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q5">
-        <v>0.2028661283986666</v>
+        <v>0.5160961668877778</v>
       </c>
       <c r="R5">
-        <v>1.825795155588</v>
+        <v>4.64486550199</v>
       </c>
       <c r="S5">
-        <v>0.0003857837591738856</v>
+        <v>0.0005030913002773097</v>
       </c>
       <c r="T5">
-        <v>0.0003857837591738856</v>
+        <v>0.0005030913002773097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>12.176051</v>
       </c>
       <c r="I6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N6">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O6">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P6">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q6">
-        <v>94.74498748768524</v>
+        <v>194.784086774912</v>
       </c>
       <c r="R6">
-        <v>852.7048873891671</v>
+        <v>1753.056780974208</v>
       </c>
       <c r="S6">
-        <v>0.1801733868753725</v>
+        <v>0.1898758134164308</v>
       </c>
       <c r="T6">
-        <v>0.1801733868753725</v>
+        <v>0.1898758134164308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.176051</v>
       </c>
       <c r="I7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>24.944012</v>
       </c>
       <c r="O7">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P7">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q7">
         <v>33.74661802851244</v>
@@ -883,10 +883,10 @@
         <v>303.7195622566121</v>
       </c>
       <c r="S7">
-        <v>0.06417481944970327</v>
+        <v>0.03289625273969089</v>
       </c>
       <c r="T7">
-        <v>0.06417481944970327</v>
+        <v>0.03289625273969089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.176051</v>
       </c>
       <c r="I8">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J8">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N8">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O8">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P8">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q8">
-        <v>23.13669941233644</v>
+        <v>27.37220233873056</v>
       </c>
       <c r="R8">
-        <v>208.230294711028</v>
+        <v>246.3498210485751</v>
       </c>
       <c r="S8">
-        <v>0.04399829061964811</v>
+        <v>0.02668246297795105</v>
       </c>
       <c r="T8">
-        <v>0.04399829061964811</v>
+        <v>0.02668246297795105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.176051</v>
       </c>
       <c r="I9">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J9">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N9">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O9">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P9">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q9">
-        <v>0.1163002275737778</v>
+        <v>0.2194259679655556</v>
       </c>
       <c r="R9">
-        <v>1.046702048164</v>
+        <v>1.97483371169</v>
       </c>
       <c r="S9">
-        <v>0.0002211642689706167</v>
+        <v>0.0002138967553355277</v>
       </c>
       <c r="T9">
-        <v>0.0002211642689706167</v>
+        <v>0.0002138967553355277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H10">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I10">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J10">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N10">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O10">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P10">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q10">
-        <v>57.50134488738979</v>
+        <v>106.083390995712</v>
       </c>
       <c r="R10">
-        <v>517.5121039865081</v>
+        <v>954.750518961408</v>
       </c>
       <c r="S10">
-        <v>0.1093483922787631</v>
+        <v>0.1034102451015954</v>
       </c>
       <c r="T10">
-        <v>0.1093483922787631</v>
+        <v>0.1034102451015954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H11">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I11">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J11">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>24.944012</v>
       </c>
       <c r="O11">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P11">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q11">
-        <v>20.48104045918756</v>
+        <v>18.379097257768</v>
       </c>
       <c r="R11">
-        <v>184.329364132688</v>
+        <v>165.411875319912</v>
       </c>
       <c r="S11">
-        <v>0.03894811244492481</v>
+        <v>0.01791597095768435</v>
       </c>
       <c r="T11">
-        <v>0.0389481124449248</v>
+        <v>0.01791597095768435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H12">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I12">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J12">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N12">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O12">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P12">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q12">
-        <v>14.04181231896356</v>
+        <v>14.90746031255</v>
       </c>
       <c r="R12">
-        <v>126.376310870672</v>
+        <v>134.16714281295</v>
       </c>
       <c r="S12">
-        <v>0.02670284677281564</v>
+        <v>0.01453181417273336</v>
       </c>
       <c r="T12">
-        <v>0.02670284677281563</v>
+        <v>0.01453181417273336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H13">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I13">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J13">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N13">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O13">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P13">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q13">
-        <v>0.07058335932622223</v>
+        <v>0.11950386266</v>
       </c>
       <c r="R13">
-        <v>0.6352502339360001</v>
+        <v>1.07553476394</v>
       </c>
       <c r="S13">
-        <v>0.0001342260233925286</v>
+        <v>0.0001164925405595068</v>
       </c>
       <c r="T13">
-        <v>0.0001342260233925286</v>
+        <v>0.0001164925405595068</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H14">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I14">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J14">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N14">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O14">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P14">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q14">
-        <v>10.81551987861833</v>
+        <v>21.165851539456</v>
       </c>
       <c r="R14">
-        <v>97.339678907565</v>
+        <v>190.492663855104</v>
       </c>
       <c r="S14">
-        <v>0.02056751390253619</v>
+        <v>0.02063250311792539</v>
       </c>
       <c r="T14">
-        <v>0.02056751390253619</v>
+        <v>0.02063250311792539</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H15">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I15">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J15">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>24.944012</v>
       </c>
       <c r="O15">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P15">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q15">
-        <v>3.852311639926666</v>
+        <v>3.667013661006222</v>
       </c>
       <c r="R15">
-        <v>34.67080475934</v>
+        <v>33.003122949056</v>
       </c>
       <c r="S15">
-        <v>0.007325812730253659</v>
+        <v>0.003574610293998616</v>
       </c>
       <c r="T15">
-        <v>0.007325812730253659</v>
+        <v>0.003574610293998616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H16">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I16">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J16">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N16">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O16">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P16">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q16">
-        <v>2.641146925606666</v>
+        <v>2.974349602177778</v>
       </c>
       <c r="R16">
-        <v>23.77032233046</v>
+        <v>26.76914641960001</v>
       </c>
       <c r="S16">
-        <v>0.005022581135322675</v>
+        <v>0.002899400353741233</v>
       </c>
       <c r="T16">
-        <v>0.005022581135322674</v>
+        <v>0.002899400353741233</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H17">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I17">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J17">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N17">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O17">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P17">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q17">
-        <v>0.01327613688666666</v>
+        <v>0.02384351585777778</v>
       </c>
       <c r="R17">
-        <v>0.11948523198</v>
+        <v>0.21459164272</v>
       </c>
       <c r="S17">
-        <v>2.524678730685046E-05</v>
+        <v>2.324269422190927E-05</v>
       </c>
       <c r="T17">
-        <v>2.524678730685046E-05</v>
+        <v>2.324269422190927E-05</v>
       </c>
     </row>
   </sheetData>
